--- a/PerformanceReport.xlsx
+++ b/PerformanceReport.xlsx
@@ -29,7 +29,7 @@
     <t>Turnaround Time</t>
   </si>
   <si>
-    <t>Algorithm Used: RoundRobin</t>
+    <t>Algorithm Used: SJF</t>
   </si>
 </sst>
 </file>
@@ -151,44 +151,44 @@
         <v>10.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>42.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>49.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>100.0</v>
+        <v>300.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>57.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>69.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="5">
@@ -202,10 +202,10 @@
         <v>20.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>53.0</v>
+        <v>37.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>73.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="6">
@@ -227,308 +227,308 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>240.0</v>
+        <v>220.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>161.0</v>
+        <v>82.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>177.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>200.0</v>
+        <v>180.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>169.0</v>
+        <v>100.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>183.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>220.0</v>
+        <v>400.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>199.0</v>
+        <v>122.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>217.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>201.0</v>
+        <v>152.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>223.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>270.0</v>
+        <v>240.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>215.0</v>
+        <v>166.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>239.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>190.0</v>
+        <v>320.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>223.0</v>
+        <v>182.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>242.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>400.0</v>
+        <v>130.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>218.0</v>
+        <v>210.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>248.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>320.0</v>
+        <v>170.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>224.0</v>
+        <v>221.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>252.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>130.0</v>
+        <v>190.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>339.0</v>
+        <v>234.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>350.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>170.0</v>
+        <v>210.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>342.0</v>
+        <v>253.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>355.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
         <v>24.0</v>
       </c>
-      <c r="B17" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="D17" t="n" s="0">
-        <v>411.0</v>
+        <v>274.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>423.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>415.0</v>
+        <v>298.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>429.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>210.0</v>
+        <v>230.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>413.0</v>
+        <v>315.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>434.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>150.0</v>
+        <v>290.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>434.0</v>
+        <v>338.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>451.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>230.0</v>
+        <v>310.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>435.0</v>
+        <v>364.0</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>458.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>450.0</v>
+        <v>391.0</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>470.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>310.0</v>
+        <v>200.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>454.0</v>
+        <v>403.0</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>481.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>290.0</v>
+        <v>250.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>457.0</v>
+        <v>423.0</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>483.0</v>
+        <v>448.0</v>
       </c>
     </row>
     <row r="25">
@@ -542,27 +542,27 @@
         <v>29.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>459.0</v>
+        <v>448.0</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>488.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>250.0</v>
+        <v>180.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>464.0</v>
+        <v>477.0</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>489.0</v>
+        <v>491.0</v>
       </c>
     </row>
     <row r="28">

--- a/PerformanceReport.xlsx
+++ b/PerformanceReport.xlsx
@@ -145,50 +145,50 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>300.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
@@ -196,50 +196,50 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>150.0</v>
+        <v>700.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>57.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>250.0</v>
+        <v>800.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>57.0</v>
+        <v>83.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>220.0</v>
+        <v>200.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>18.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>100.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="8">
@@ -247,67 +247,67 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>180.0</v>
+        <v>350.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>22.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>100.0</v>
+        <v>111.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>122.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>122.0</v>
+        <v>133.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>152.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>14.0</v>
+        <v>35.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>152.0</v>
+        <v>158.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>166.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>240.0</v>
+        <v>400.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>166.0</v>
+        <v>193.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>182.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="12">
@@ -315,16 +315,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>320.0</v>
+        <v>500.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>28.0</v>
+        <v>45.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>182.0</v>
+        <v>205.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="13">
@@ -332,50 +332,50 @@
         <v>14.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>130.0</v>
+        <v>200.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>221.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="B14" t="n" s="0">
-        <v>170.0</v>
-      </c>
-      <c r="C14" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="D14" t="n" s="0">
-        <v>221.0</v>
+        <v>260.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>234.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>190.0</v>
+        <v>600.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>19.0</v>
+        <v>50.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>234.0</v>
+        <v>275.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>253.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="16">
@@ -383,186 +383,186 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>210.0</v>
+        <v>100.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>253.0</v>
+        <v>325.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>274.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>270.0</v>
+        <v>700.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>274.0</v>
+        <v>333.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>298.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>150.0</v>
+        <v>250.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>298.0</v>
+        <v>353.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>315.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>230.0</v>
+        <v>450.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>315.0</v>
+        <v>359.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>338.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>290.0</v>
+        <v>300.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>338.0</v>
+        <v>383.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>364.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>310.0</v>
+        <v>200.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>364.0</v>
+        <v>411.0</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>391.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>100.0</v>
+        <v>300.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>391.0</v>
+        <v>425.0</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>403.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>403.0</v>
+        <v>441.0</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>423.0</v>
+        <v>459.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>250.0</v>
+        <v>100.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>423.0</v>
+        <v>459.0</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>448.0</v>
+        <v>491.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>330.0</v>
+        <v>300.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>448.0</v>
+        <v>491.0</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>477.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>180.0</v>
+        <v>400.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>477.0</v>
+        <v>503.0</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>491.0</v>
+        <v>529.0</v>
       </c>
     </row>
     <row r="28">

--- a/PerformanceReport.xlsx
+++ b/PerformanceReport.xlsx
@@ -29,7 +29,7 @@
     <t>Turnaround Time</t>
   </si>
   <si>
-    <t>Algorithm Used: SJF</t>
+    <t>Algorithm Used: RoundRobin</t>
   </si>
 </sst>
 </file>
@@ -145,16 +145,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>500.0</v>
+        <v>200.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>5.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="3">
@@ -162,33 +162,33 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>100.0</v>
+        <v>300.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>5.0</v>
+        <v>34.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>35.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>35.0</v>
+        <v>57.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>43.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="5">
@@ -196,186 +196,186 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>700.0</v>
+        <v>150.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>43.0</v>
+        <v>77.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>83.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>800.0</v>
+        <v>250.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>83.0</v>
+        <v>121.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>93.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>200.0</v>
+        <v>240.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>93.0</v>
+        <v>130.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>111.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>350.0</v>
+        <v>220.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>111.0</v>
+        <v>140.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>133.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>133.0</v>
+        <v>142.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>158.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>250.0</v>
+        <v>200.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>158.0</v>
+        <v>151.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>193.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>400.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>193.0</v>
+        <v>187.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>205.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
         <v>11.0</v>
       </c>
-      <c r="B12" t="n" s="0">
-        <v>500.0</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>45.0</v>
-      </c>
       <c r="D12" t="n" s="0">
-        <v>205.0</v>
+        <v>261.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>250.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>200.0</v>
+        <v>170.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>250.0</v>
+        <v>264.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>260.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>100.0</v>
+        <v>270.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>260.0</v>
+        <v>342.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>275.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>600.0</v>
+        <v>190.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>50.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>275.0</v>
+        <v>350.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>325.0</v>
+        <v>369.0</v>
       </c>
     </row>
     <row r="16">
@@ -383,186 +383,186 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>100.0</v>
+        <v>210.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>325.0</v>
+        <v>358.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>333.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>700.0</v>
+        <v>100.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>333.0</v>
+        <v>389.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>353.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>250.0</v>
+        <v>150.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>353.0</v>
+        <v>407.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>359.0</v>
+        <v>424.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>450.0</v>
+        <v>230.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>359.0</v>
+        <v>407.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>383.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>28.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>383.0</v>
+        <v>410.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>411.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>200.0</v>
+        <v>180.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>14.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>411.0</v>
+        <v>415.0</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>425.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="B22" t="n" s="0">
-        <v>300.0</v>
-      </c>
-      <c r="C22" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="D22" t="n" s="0">
-        <v>425.0</v>
+        <v>427.0</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>441.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>150.0</v>
+        <v>310.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>441.0</v>
+        <v>437.0</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>459.0</v>
+        <v>464.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>100.0</v>
+        <v>290.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>459.0</v>
+        <v>440.0</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>491.0</v>
+        <v>466.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>300.0</v>
+        <v>330.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>491.0</v>
+        <v>436.0</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>503.0</v>
+        <v>465.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>400.0</v>
+        <v>250.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>503.0</v>
+        <v>441.0</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>529.0</v>
+        <v>466.0</v>
       </c>
     </row>
     <row r="28">
